--- a/docs/03_USDM.xlsx
+++ b/docs/03_USDM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8b2f54c7041b8e/デスクトップ/開発勉強用/ドキュメントテンプレート/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b8b2f54c7041b8e/デスクトップ/開発勉強用/VB/ChessClock/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{52D3A397-7EB6-4B98-A6D7-10BA548454DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D0D9E88-F021-4091-B64E-A8AAC55D7F21}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{52D3A397-7EB6-4B98-A6D7-10BA548454DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1AA3AC2-4343-4367-BC91-893B1C1833FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33225FD2-3931-406C-96B2-EDDCCEA6CAA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{33225FD2-3931-406C-96B2-EDDCCEA6CAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>USDM</t>
     <phoneticPr fontId="1"/>
@@ -141,31 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>c1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
     <t>Revision</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -236,6 +211,645 @@
     <rPh sb="0" eb="2">
       <t>コキャク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上位要求</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの持ち時間を設定できる</t>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由に持ち時間を設定できるようにするため</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンデありとする場合、プレイヤー1・2の持ち時間を別の値に設定できる</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンデ機能を追加できるようにするため</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+  </si>
+  <si>
+    <t>UC1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち時間は１秒単位で、１秒～99分59秒までの間で設定できる</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち時間の範囲を規定する</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトでは持ち時間は10分とする</t>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妥当な時間</t>
+    <rPh sb="0" eb="2">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの秒読み時間を設定できる</t>
+    <rPh sb="6" eb="8">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切れ負け以外に秒読みカウントダウン機能を設定できるようにするため</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンデありとする場合、プレイヤー1・2の秒読み時間を別の値に設定できる</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトでは秒読み時間は30秒とする</t>
+    <rPh sb="7" eb="9">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒読み時間の範囲を規定する</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェスクロックとしての機能</t>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認定仕様</t>
+  </si>
+  <si>
+    <t>UC4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセットボタンをクリックすると、残りの持ち時間に関係なくカウントダウンを終了する</t>
+    <rPh sb="16" eb="17">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了する機能</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒読みありとする場合、持ち時間が0になったら秒読みカウントダウンを開始する</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒読み機能の開始条件</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カイシジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒読みカウントダウン中にDoneボタンをクリックすると、秒読み時間を開始前に設定した時間にリセットする</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カイシマエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Doneボタンをクリックすると、自分のカウントダウンを終了して、相手のカウントダウンを開始する</t>
+    <rPh sb="16" eb="18">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち時間又は秒読み時間残り時間が無くなったら、ビープ音を鳴らしてカウントダウンを終了する</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了条件</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UC3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒読みカウントダウンは毎回設定値でカウントされるから</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>マイカイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち時間は"mm:ss"の形式で表示する</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式の指定</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジケイシキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒読み時間は秒単位で表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ビョウタンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒読み時間は１秒単位で、１秒～1分までの間で設定できる</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンデの有無はチェックボックスを用いて設定する</t>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秒読みカウントダウンの実施の有無はチェックボックスを用いて設定する</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FC3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウンを実施していないときにリセットボタンをクリックすると、持ち時間と秒読み時間をデフォルト値にリセットする</t>
+    <rPh sb="8" eb="10">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ビョウヨ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセット機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期設定</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ini</t>
+  </si>
+  <si>
+    <t>Ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面構成</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -282,7 +896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,11 +909,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="double"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="double"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -356,12 +1025,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -392,7 +1064,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5C7FD54E-5764-4B4C-B60D-56F6F5A295BD}" name="Revision" displayName="Revision" ref="B16:E18" totalsRowShown="0">
   <autoFilter ref="B16:E18" xr:uid="{5C7FD54E-5764-4B4C-B60D-56F6F5A295BD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D5AD67F0-2A08-4497-AE57-D1EE01BF28F1}" name="Revision" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{D5AD67F0-2A08-4497-AE57-D1EE01BF28F1}" name="Revision" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{E1F8DB21-073C-4880-A39C-73EAC3C29A3C}" name="Condition"/>
     <tableColumn id="3" xr3:uid="{CDE01665-0C76-4594-8BA3-8D9147B222C1}" name="Author"/>
     <tableColumn id="4" xr3:uid="{6BB21323-04C7-4F1D-86FA-3D74F9185F66}" name="Date"/>
@@ -402,19 +1074,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{877794E6-17DE-428D-80AD-F8C8FA7453C1}" name="USDM1" displayName="USDM1" ref="A3:H100" totalsRowShown="0">
-  <autoFilter ref="A3:H100" xr:uid="{877794E6-17DE-428D-80AD-F8C8FA7453C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{877794E6-17DE-428D-80AD-F8C8FA7453C1}" name="USDM1" displayName="USDM1" ref="A3:H102" totalsRowShown="0">
+  <autoFilter ref="A3:H102" xr:uid="{877794E6-17DE-428D-80AD-F8C8FA7453C1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FE509A76-BE35-4E62-AEB9-161C504CEC0F}" name="カテゴリー"/>
     <tableColumn id="2" xr3:uid="{15F2FDEB-9449-4974-AD69-A3963FA7C6BC}" name="要求/仕様"/>
     <tableColumn id="3" xr3:uid="{12078BAA-9F80-4883-8238-254C01938876}" name="親要求"/>
-    <tableColumn id="5" xr3:uid="{0403B48B-C03A-4873-B488-4414B1A9707E}" name="識別番号" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{0403B48B-C03A-4873-B488-4414B1A9707E}" name="識別番号" dataDxfId="10">
       <calculatedColumnFormula>ROW()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{2C085D3F-C655-4BDB-A01C-6C2ABF1A255C}" name="グループ"/>
-    <tableColumn id="6" xr3:uid="{F45F15BB-DDC7-4D6D-A560-FD16D56E3B87}" name="内容" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{20B81424-DF35-468D-92CE-7FC74A2B484B}" name="理由" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{AC85ECEE-5BD3-4123-B27D-7577A2F9C475}" name="説明" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F45F15BB-DDC7-4D6D-A560-FD16D56E3B87}" name="内容" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{20B81424-DF35-468D-92CE-7FC74A2B484B}" name="理由" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{AC85ECEE-5BD3-4123-B27D-7577A2F9C475}" name="説明" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -746,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BE6A5D-F7D7-480E-866E-EC2D74E676A6}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -759,37 +1431,37 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2">
         <v>44569</v>
@@ -800,7 +1472,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -815,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D35AB80-8993-42F7-9C64-3505DE7402C2}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -826,7 +1498,7 @@
     <col min="1" max="1" width="11.59765625" customWidth="1"/>
     <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="4" max="5" width="9.796875" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="1"/>
+    <col min="6" max="8" width="40.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -860,31 +1532,786 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:ZU3">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:ZU100">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A4:ZU102">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>ISBLANK(A$3)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:H100">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A4:H102">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(COUNTIF($B4,"*要求")&gt;0,ISNONTEXT($G4))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B100" xr:uid="{39B83F9D-3AB4-42A6-BB39-A91DA3D93039}">
-      <formula1>"上位要求,中位要求,下位要求,認定仕様,仕様"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{DACC4706-24D8-46E9-B1F5-7379828FBE94}">
       <formula1>AND(RIGHT(G4,1)&lt;&gt;" ",RIGHT(G4,1)&lt;&gt;"　")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:ZU100" xr:uid="{01FB62E0-61FF-4267-B88E-7F216A9E0E74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B102" xr:uid="{39B83F9D-3AB4-42A6-BB39-A91DA3D93039}">
+      <formula1>"上位要求,中位要求,下位要求,認定仕様,仕様"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:ZU102" xr:uid="{01FB62E0-61FF-4267-B88E-7F216A9E0E74}">
       <formula1>"T"</formula1>
     </dataValidation>
   </dataValidations>
@@ -901,7 +2328,7 @@
           <x14:formula1>
             <xm:f>カテゴリー!$B$2:$B$20</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A100</xm:sqref>
+          <xm:sqref>A4:A102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -911,9 +2338,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8CE41C-0F7E-4F9B-A556-25304D72C15C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -930,43 +2359,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/docs/03_USDM.xlsx
+++ b/docs/03_USDM.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{52D3A397-7EB6-4B98-A6D7-10BA548454DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1AA3AC2-4343-4367-BC91-893B1C1833FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{33225FD2-3931-406C-96B2-EDDCCEA6CAA3}"/>
+    <workbookView xWindow="-19310" yWindow="1310" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{33225FD2-3931-406C-96B2-EDDCCEA6CAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="8" r:id="rId1"/>
@@ -916,58 +916,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="8">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="double"/>
-        <color theme="9"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="double"/>
-        <color theme="9"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1025,21 +988,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,7 +1012,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5C7FD54E-5764-4B4C-B60D-56F6F5A295BD}" name="Revision" displayName="Revision" ref="B16:E18" totalsRowShown="0">
   <autoFilter ref="B16:E18" xr:uid="{5C7FD54E-5764-4B4C-B60D-56F6F5A295BD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D5AD67F0-2A08-4497-AE57-D1EE01BF28F1}" name="Revision" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{D5AD67F0-2A08-4497-AE57-D1EE01BF28F1}" name="Revision" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E1F8DB21-073C-4880-A39C-73EAC3C29A3C}" name="Condition"/>
     <tableColumn id="3" xr3:uid="{CDE01665-0C76-4594-8BA3-8D9147B222C1}" name="Author"/>
     <tableColumn id="4" xr3:uid="{6BB21323-04C7-4F1D-86FA-3D74F9185F66}" name="Date"/>
@@ -1080,13 +1028,13 @@
     <tableColumn id="1" xr3:uid="{FE509A76-BE35-4E62-AEB9-161C504CEC0F}" name="カテゴリー"/>
     <tableColumn id="2" xr3:uid="{15F2FDEB-9449-4974-AD69-A3963FA7C6BC}" name="要求/仕様"/>
     <tableColumn id="3" xr3:uid="{12078BAA-9F80-4883-8238-254C01938876}" name="親要求"/>
-    <tableColumn id="5" xr3:uid="{0403B48B-C03A-4873-B488-4414B1A9707E}" name="識別番号" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{0403B48B-C03A-4873-B488-4414B1A9707E}" name="識別番号" dataDxfId="3">
       <calculatedColumnFormula>ROW()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{2C085D3F-C655-4BDB-A01C-6C2ABF1A255C}" name="グループ"/>
-    <tableColumn id="6" xr3:uid="{F45F15BB-DDC7-4D6D-A560-FD16D56E3B87}" name="内容" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{20B81424-DF35-468D-92CE-7FC74A2B484B}" name="理由" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{AC85ECEE-5BD3-4123-B27D-7577A2F9C475}" name="説明" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{F45F15BB-DDC7-4D6D-A560-FD16D56E3B87}" name="内容" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{20B81424-DF35-468D-92CE-7FC74A2B484B}" name="理由" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{AC85ECEE-5BD3-4123-B27D-7577A2F9C475}" name="説明" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1489,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D35AB80-8993-42F7-9C64-3505DE7402C2}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2295,12 +2243,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:ZU102">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>ISBLANK(A$3)=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:H102">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(COUNTIF($B4,"*要求")&gt;0,ISNONTEXT($G4))</formula>
     </cfRule>
   </conditionalFormatting>
